--- a/medicine/Psychotrope/Cusqueña/Cusqueña.xlsx
+++ b/medicine/Psychotrope/Cusqueña/Cusqueña.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cusque%C3%B1a</t>
+          <t>Cusqueña</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cusqueña est une marque de bière péruvienne, originaire de la région de Cuzco, brassée par Backus and Johnston.
 Il existe une variété de bière blonde (5 %) et une de bière brune (5,6 %).
 La Cusqueña brune, de couleur sombre presque noire, a une saveur maltée, peu amère, qui la distingue clairement des stouts.
-La Cusqueña a participé à des différentes compétitions de boissons alcoolisées. La Cerveza Cusqueña a reçu à de nombreuses reprises des distinctions internationales, attribuées notamment par de prestigieux organismes. La Cusqueña Malta a reçu un label de qualité Grand Or aux Sélections Mondiales de la Qualité, organisées par Monde Selection en 2010. Par contre, La Cusqueña Regular a été récompensée, en 2009, d’un International High Quality Trophy pour avoir obtenu un label de qualité Or ou Grand Or durant trois années consécutives, décerné par  Monde Selection, Institut International de la Qualité[1].
+La Cusqueña a participé à des différentes compétitions de boissons alcoolisées. La Cerveza Cusqueña a reçu à de nombreuses reprises des distinctions internationales, attribuées notamment par de prestigieux organismes. La Cusqueña Malta a reçu un label de qualité Grand Or aux Sélections Mondiales de la Qualité, organisées par Monde Selection en 2010. Par contre, La Cusqueña Regular a été récompensée, en 2009, d’un International High Quality Trophy pour avoir obtenu un label de qualité Or ou Grand Or durant trois années consécutives, décerné par  Monde Selection, Institut International de la Qualité.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cusque%C3%B1a</t>
+          <t>Cusqueña</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 1er octobre 1908, Ernesto Günther et un groupe d'entrepreneurs ont ouvert dans la ville de Cuzco, une succursale de la brasserie Cervezera Allemana Günther &amp; Tidow S.A. Ltda. qui s'était déjà implantée dans la ville d'Arequipa 10 ans auparavant. Cette société possédait également d'autres bières comme la Pilsener Bier Cuzco ("Pilsen") et la bière Extracto de Malta Cuzco. Le 27 octobre de 1909 les premiers brassages de bières ont commencé dans les installations de leur usine.
 La nouvelle bière a été très bien accueillie par les consommateurs. Cela peut s'expliquer par le fait que dans le monde andin, la chicha de jora, un type de bière au maïs était déjà au centre de la vie des habitants que cela soit à travers la gastronomie ou pour les rites religieux. Elle remplaçait tout autre type de boisson comme l'eau, le lait ou encore le vin.
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cusque%C3%B1a</t>
+          <t>Cusqueña</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Formats de vente des produits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cerveza Cusqueña, bouteille en verre 330 ml.
 Cerveza Cusqueña, bouteille en verre 620 ml.
@@ -571,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cusque%C3%B1a</t>
+          <t>Cusqueña</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,7 +605,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Site officiel</t>
         </is>
@@ -601,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cusque%C3%B1a</t>
+          <t>Cusqueña</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,7 +637,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Cerveza Cusqueña has been awarded the Gold and Grand Gold medals at Monde Selection, 25 June 2010
